--- a/Librian.xlsx
+++ b/Librian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Санчепездол\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Санчепездол\Desktop\BuenosTardesMiMejorAmigo-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E5D6DA-7638-48C7-9399-BDAC82EA2FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A18C1A8-7841-4D61-9C22-3660E33B2ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Телефон</t>
   </si>
@@ -36,37 +33,37 @@
     <t>Электронная почта</t>
   </si>
   <si>
-    <t>Иванов Иван Иванович</t>
-  </si>
-  <si>
     <t>ivanov@example.com</t>
   </si>
   <si>
-    <t>Петров Петр Петрович</t>
-  </si>
-  <si>
     <t>petrov@example.com</t>
   </si>
   <si>
-    <t>Сидорова Светлана Васильевна</t>
-  </si>
-  <si>
     <t>sidorova@example.com</t>
   </si>
   <si>
-    <t>Кузнецова Анна Сергеевна</t>
-  </si>
-  <si>
-    <t>kuznetsova@example.com</t>
-  </si>
-  <si>
-    <t>Смирнов Алексей Викторович</t>
-  </si>
-  <si>
     <t>smirnov@example.com</t>
   </si>
   <si>
     <t>ФИО</t>
+  </si>
+  <si>
+    <t>Ivanov Ivan</t>
+  </si>
+  <si>
+    <t>Petrov Gleb</t>
+  </si>
+  <si>
+    <t>Sidorova Milana</t>
+  </si>
+  <si>
+    <t>Jiorno Jotaro</t>
+  </si>
+  <si>
+    <t>jojo@example.com</t>
+  </si>
+  <si>
+    <t>Smirnov Hariton</t>
   </si>
 </sst>
 </file>
@@ -414,7 +411,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,87 +422,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>89001234567</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>89007654321</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>89009876543</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>89003456789</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>89004567890</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +498,7 @@
     <hyperlink ref="D2" r:id="rId1" display="mailto:ivanov@example.com" xr:uid="{D93BCE5C-D3F4-4D4C-82EF-53CC76B9F7CF}"/>
     <hyperlink ref="D3" r:id="rId2" display="mailto:petrov@example.com" xr:uid="{0120CFDD-4644-4167-8A9A-2A2FA5FEF286}"/>
     <hyperlink ref="D4" r:id="rId3" display="mailto:sidorova@example.com" xr:uid="{BD5CB352-6ECB-4A95-B302-42A956967920}"/>
-    <hyperlink ref="D5" r:id="rId4" display="mailto:kuznetsova@example.com" xr:uid="{D4C32AF7-4040-4106-9DBD-65E441C53452}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{D4C32AF7-4040-4106-9DBD-65E441C53452}"/>
     <hyperlink ref="D6" r:id="rId5" display="mailto:smirnov@example.com" xr:uid="{3C01C0BC-2E96-48D7-A2CE-34F3F1FDCC99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
